--- a/New Website.xlsx
+++ b/New Website.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook-air/Desktop/kerja/lasindo/Lasindo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CA878-6F46-9E4D-AB93-8BEC9630D649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL PRODUCT" sheetId="4" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="MTC" sheetId="5" r:id="rId5"/>
     <sheet name="ETC" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -975,8 +981,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,7 +1228,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -1240,25 +1246,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1320,7 +1314,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1332,15 +1346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,15 +1355,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1367,6 +1374,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1387,7 +1402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="rtc-700-slope.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="rtc-700-slope.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1425,7 +1446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="ptc-155-slope.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="ptc-155-slope.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1463,7 +1490,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="compact-temperature-calibrator-ctc-652-left-lo-res.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="compact-temperature-calibrator-ctc-652-left-lo-res.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1501,7 +1534,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="marine-temperature-calibrator-mtc-650a-left-hi-res.jpg"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="marine-temperature-calibrator-mtc-650a-left-hi-res.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1539,7 +1578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="easy-temperature-calibrator-etc-front-hi-res.jpg"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="easy-temperature-calibrator-etc-front-hi-res.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1608,7 +1653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1640,9 +1685,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,6 +1737,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1849,159 +1930,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>246</v>
       </c>
@@ -2018,167 +2099,167 @@
       <c r="H16" s="42"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" spans="1:9" ht="33" customHeight="1">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="38" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="38" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
         <v>252</v>
       </c>
@@ -2189,24 +2270,24 @@
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-    </row>
-    <row r="33" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A33" s="38" t="s">
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="44" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2232,1038 +2313,1095 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E156"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="D110" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="59.5" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="18" t="s">
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="13"/>
-      <c r="B22" s="18" t="s">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="20" t="s">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="20" t="s">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="21" t="s">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="22" t="s">
+      <c r="D28" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+      <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18" t="s">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(D19:D30)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <f>SUM(D32:D44)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="18" t="s">
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" s="13"/>
-      <c r="B36" s="18" t="s">
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+      <c r="D38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="20" t="s">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="20" t="s">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="21" t="s">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="22" t="s">
+      <c r="D42" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18" t="s">
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="52"/>
+      <c r="B44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14" t="s">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="20" t="s">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="20" t="s">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="18" t="s">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="13"/>
-      <c r="B51" s="18" t="s">
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14" t="s">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
+      <c r="B52" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="25" t="s">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17" t="s">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14" t="s">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="20" t="s">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="20" t="s">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="21" t="s">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="51"/>
+      <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14" t="s">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+      <c r="B60" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="s">
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14" t="s">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="29" t="s">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="18" t="s">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30">
-      <c r="A67" s="13"/>
-      <c r="B67" s="18" t="s">
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="51"/>
+      <c r="B67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14" t="s">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="51"/>
+      <c r="B68" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="29" t="s">
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14" t="s">
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="51"/>
+      <c r="B70" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="31" t="s">
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="32" t="s">
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="33" t="s">
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="51"/>
+      <c r="B74" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="18" t="s">
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="52"/>
+      <c r="B75" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14" t="s">
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="51"/>
+      <c r="B78" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="20" t="s">
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="13"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="20" t="s">
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="51"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="18" t="s">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="51"/>
+      <c r="B81" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30">
-      <c r="A82" s="13"/>
-      <c r="B82" s="18" t="s">
+    <row r="82" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="51"/>
+      <c r="B82" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14" t="s">
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="51"/>
+      <c r="B83" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="31" t="s">
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="29" t="s">
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14" t="s">
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="51"/>
+      <c r="B86" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="31" t="s">
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="29" t="s">
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="51"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="22" t="s">
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="51"/>
+      <c r="B89" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14" t="s">
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="51"/>
+      <c r="B90" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17" t="s">
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="14" t="s">
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14" t="s">
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="51"/>
+      <c r="B94" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="29" t="s">
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="51"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="18" t="s">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="51"/>
+      <c r="B96" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30">
-      <c r="A97" s="13"/>
-      <c r="B97" s="18" t="s">
+    <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="51"/>
+      <c r="B97" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14" t="s">
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="51"/>
+      <c r="B98" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="29" t="s">
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="31" t="s">
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="51"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14" t="s">
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="51"/>
+      <c r="B101" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="31" t="s">
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="32" t="s">
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="33" t="s">
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="51"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="13"/>
-      <c r="B105" s="22" t="s">
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="51"/>
+      <c r="B105" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="16"/>
-      <c r="B106" s="18" t="s">
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="52"/>
+      <c r="B106" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="26" t="s">
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="53"/>
+      <c r="B108" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14" t="s">
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="51"/>
+      <c r="B109" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="13"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="29" t="s">
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="51"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14" t="s">
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="51"/>
+      <c r="B111" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="31" t="s">
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="13"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="29" t="s">
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="51"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="30">
-      <c r="A114" s="13"/>
-      <c r="B114" s="18" t="s">
+    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="51"/>
+      <c r="B114" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="13"/>
-      <c r="B115" s="18" t="s">
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="51"/>
+      <c r="B115" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14" t="s">
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="51"/>
+      <c r="B116" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="31" t="s">
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="29" t="s">
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="51"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="22" t="s">
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="51"/>
+      <c r="B119" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="16"/>
-      <c r="B120" s="18" t="s">
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="52"/>
+      <c r="B120" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="4" customFormat="1">
+    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C122" s="5"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="4" customFormat="1">
+    <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C144" s="5"/>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="34" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="34" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="34" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="34" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A93:A106"/>
-    <mergeCell ref="B94:B95"/>
     <mergeCell ref="B101:B104"/>
     <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B116:B118"/>
     <mergeCell ref="A32:A44"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B37:B38"/>
@@ -3273,14 +3411,9 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A63:A75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A93:A106"/>
+    <mergeCell ref="B94:B95"/>
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B24"/>
@@ -3289,12 +3422,16 @@
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B73"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A147" r:id="rId1"/>
-    <hyperlink ref="A150" r:id="rId2"/>
-    <hyperlink ref="A153" r:id="rId3"/>
-    <hyperlink ref="A156" r:id="rId4"/>
+    <hyperlink ref="A147" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A150" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A153" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A156" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3302,655 +3439,655 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I93" sqref="H93:I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="59.5" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="13"/>
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="20" t="s">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="21" t="s">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="13"/>
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="s">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
+      <c r="B38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17" t="s">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="51"/>
+      <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="51"/>
+      <c r="B44" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17" t="s">
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="13"/>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="36" t="s">
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+      <c r="B49" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17" t="s">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="22" t="s">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18" t="s">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="52"/>
+      <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14" t="s">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="20" t="s">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="s">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="18" t="s">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
+      <c r="B58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30">
-      <c r="A59" s="13"/>
-      <c r="B59" s="18" t="s">
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="51"/>
+      <c r="B59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="36" t="s">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+      <c r="B60" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14" t="s">
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="51"/>
+      <c r="B61" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17" t="s">
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="22" t="s">
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="51"/>
+      <c r="B63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="18" t="s">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
+      <c r="B64" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14" t="s">
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="51"/>
+      <c r="B67" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="20" t="s">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17" t="s">
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="18" t="s">
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="51"/>
+      <c r="B70" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30">
-      <c r="A71" s="13"/>
-      <c r="B71" s="18" t="s">
+    <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="51"/>
+      <c r="B71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="36" t="s">
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="51"/>
+      <c r="B72" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14" t="s">
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="51"/>
+      <c r="B73" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17" t="s">
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="51"/>
+      <c r="B75" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18" t="s">
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="52"/>
+      <c r="B76" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="4" customFormat="1">
+    <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="4" customFormat="1">
+    <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="34"/>
-    </row>
-    <row r="98" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="30"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="34"/>
-    </row>
-    <row r="101" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="30"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="34"/>
-    </row>
-    <row r="104" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="30"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="34"/>
-    </row>
-    <row r="107" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="30"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
     </row>
   </sheetData>
@@ -3978,617 +4115,620 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="13"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="20" t="s">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="13"/>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
+      <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="51"/>
+      <c r="B41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="13"/>
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="36" t="s">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="51"/>
+      <c r="B44" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17" t="s">
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="22" t="s">
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="52"/>
+      <c r="B47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14" t="s">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17" t="s">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="18" t="s">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
+      <c r="B52" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30">
-      <c r="A53" s="13"/>
-      <c r="B53" s="18" t="s">
+    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14" t="s">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17" t="s">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="22" t="s">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+      <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18" t="s">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="36" t="s">
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="51"/>
+      <c r="B61" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="18" t="s">
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="51"/>
+      <c r="B62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30">
-      <c r="A63" s="13"/>
-      <c r="B63" s="18" t="s">
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="51"/>
+      <c r="B63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="36" t="s">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14" t="s">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="51"/>
+      <c r="B65" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17" t="s">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="22" t="s">
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="51"/>
+      <c r="B67" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18" t="s">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="52"/>
+      <c r="B68" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="4" customFormat="1">
+    <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="4" customFormat="1">
+    <row r="86" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="34" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="34" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="34"/>
-    </row>
-    <row r="95" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="30"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="34"/>
-    </row>
-    <row r="98" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="30"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A60:A68"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="A26:A36"/>
@@ -4600,255 +4740,252 @@
     <mergeCell ref="A49:A58"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A89" r:id="rId1"/>
+    <hyperlink ref="A89" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A49"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1">
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1">
+    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="34"/>
-    </row>
-    <row r="43" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="34"/>
-    </row>
-    <row r="46" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="34"/>
-    </row>
-    <row r="49" spans="1:1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="30"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="34"/>
-    </row>
-    <row r="52" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
     </row>
   </sheetData>
@@ -4862,350 +4999,350 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="25" t="s">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="17" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="20" t="s">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="16" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="36" t="s">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+      <c r="B29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="13"/>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
+      <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="25" t="s">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="21" t="s">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="22" t="s">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1">
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1">
+    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="34"/>
-    </row>
-    <row r="57" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="34"/>
-    </row>
-    <row r="60" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="30"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="34"/>
-    </row>
-    <row r="63" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="30"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="34"/>
-    </row>
-    <row r="66" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
     </row>
   </sheetData>
@@ -5218,5 +5355,6 @@
     <mergeCell ref="B34:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/New Website.xlsx
+++ b/New Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook-air/Desktop/kerja/lasindo/Lasindo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CA878-6F46-9E4D-AB93-8BEC9630D649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A708FA-CAD1-B146-8682-182FFAA72FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL PRODUCT" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="305">
   <si>
     <t>Overview</t>
   </si>
@@ -976,6 +976,24 @@
   </si>
   <si>
     <t xml:space="preserve">    - ETC Reference Manual</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>update_at</t>
+  </si>
+  <si>
+    <t>Admin Email</t>
+  </si>
+  <si>
+    <t>admin_email</t>
   </si>
 </sst>
 </file>
@@ -1325,18 +1343,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1355,7 +1361,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1382,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1940,357 +1958,364 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="41" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="44" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="44" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="33"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="33"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="33"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="33"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="33"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="41" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="35"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:C15"/>
+    <mergeCell ref="D3:F15"/>
+    <mergeCell ref="G3:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D17:F17"/>
@@ -2299,13 +2324,6 @@
     <mergeCell ref="D19:F31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A3:C15"/>
-    <mergeCell ref="D3:F15"/>
-    <mergeCell ref="G3:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2314,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E156"/>
+  <dimension ref="A2:K156"/>
   <sheetViews>
-    <sheetView topLeftCell="D110" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2325,7 +2343,10 @@
     <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="59.5" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="8"/>
+    <col min="4" max="7" width="9.1640625" style="8"/>
+    <col min="8" max="8" width="13" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2398,8 +2419,8 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2412,16 +2433,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52"/>
       <c r="C20" s="13" t="s">
@@ -2431,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="14" t="s">
         <v>15</v>
@@ -2443,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="14" t="s">
         <v>16</v>
@@ -2455,16 +2476,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="H23" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="52"/>
       <c r="C24" s="13" t="s">
@@ -2473,31 +2506,37 @@
       <c r="D24" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="H24" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
       <c r="C28" s="17" t="s">
@@ -2507,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="18" t="s">
         <v>37</v>
@@ -2519,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="14" t="s">
         <v>20</v>
@@ -2535,8 +2574,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -2555,7 +2594,7 @@
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -2598,7 +2637,7 @@
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="20" t="s">
@@ -2617,7 +2656,7 @@
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -2673,7 +2712,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="53" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -2685,7 +2724,7 @@
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -2726,7 +2765,7 @@
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="51"/>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -2749,7 +2788,7 @@
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -2788,7 +2827,7 @@
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="51"/>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="50" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="12" t="s">
@@ -2803,7 +2842,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="50" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="22" t="s">
@@ -2815,7 +2854,7 @@
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -2849,7 +2888,7 @@
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="23" t="s">
@@ -2865,7 +2904,7 @@
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="51"/>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -2912,7 +2951,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -2924,7 +2963,7 @@
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="51"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="24" t="s">
@@ -2965,7 +3004,7 @@
     </row>
     <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="51"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="24" t="s">
@@ -2988,7 +3027,7 @@
     </row>
     <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="51"/>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C86" s="24" t="s">
@@ -3020,7 +3059,7 @@
     </row>
     <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="51"/>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="50" t="s">
         <v>20</v>
       </c>
       <c r="C90" s="12" t="s">
@@ -3035,7 +3074,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="50" t="s">
         <v>84</v>
       </c>
       <c r="B93" s="22" t="s">
@@ -3047,7 +3086,7 @@
     </row>
     <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="51"/>
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="24" t="s">
@@ -3081,7 +3120,7 @@
     </row>
     <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="51"/>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C98" s="23" t="s">
@@ -3104,7 +3143,7 @@
     </row>
     <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="51"/>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C101" s="24" t="s">
@@ -3151,7 +3190,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="53"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="22" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3200,7 @@
     </row>
     <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="51"/>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="24" t="s">
@@ -3177,7 +3216,7 @@
     </row>
     <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="51"/>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C111" s="24" t="s">
@@ -3218,7 +3257,7 @@
     </row>
     <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="51"/>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="24" t="s">
@@ -3396,21 +3435,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B60:B61"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A93:A106"/>
     <mergeCell ref="B94:B95"/>
@@ -3426,6 +3450,21 @@
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A46:A61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B116:B118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A147" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -3525,7 +3564,7 @@
       <c r="C16" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="53" t="s">
         <v>139</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -3537,7 +3576,7 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -3571,7 +3610,7 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -3587,7 +3626,7 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -3627,7 +3666,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="53" t="s">
         <v>148</v>
       </c>
       <c r="B31" s="31" t="s">
@@ -3639,7 +3678,7 @@
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3673,7 +3712,7 @@
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -3689,7 +3728,7 @@
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -3722,7 +3761,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="53" t="s">
         <v>157</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -3734,7 +3773,7 @@
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -3777,7 +3816,7 @@
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="51"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -3810,7 +3849,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="53" t="s">
         <v>165</v>
       </c>
       <c r="B54" s="31" t="s">
@@ -3822,7 +3861,7 @@
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -3872,7 +3911,7 @@
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -3905,7 +3944,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="53" t="s">
         <v>174</v>
       </c>
       <c r="B66" s="31" t="s">
@@ -3917,7 +3956,7 @@
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="51"/>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -3967,7 +4006,7 @@
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="51"/>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="12" t="s">
@@ -4092,6 +4131,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B44:B45"/>
@@ -4101,14 +4148,6 @@
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A66:A76"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4186,7 +4225,7 @@
       <c r="C13" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="53" t="s">
         <v>194</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -4198,7 +4237,7 @@
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -4241,7 +4280,7 @@
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -4274,7 +4313,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="53" t="s">
         <v>204</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -4286,7 +4325,7 @@
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -4336,7 +4375,7 @@
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -4369,7 +4408,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="53" t="s">
         <v>214</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -4381,7 +4420,7 @@
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -4424,7 +4463,7 @@
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -4457,7 +4496,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="53" t="s">
         <v>223</v>
       </c>
       <c r="B49" s="31" t="s">
@@ -4469,7 +4508,7 @@
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="51"/>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -4512,7 +4551,7 @@
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -4545,7 +4584,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="53" t="s">
         <v>231</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -4593,7 +4632,7 @@
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="51"/>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -4815,7 +4854,7 @@
       <c r="C12" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="53" t="s">
         <v>260</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -4827,7 +4866,7 @@
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -4870,7 +4909,7 @@
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -5002,7 +5041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -5070,7 +5109,7 @@
       <c r="C13" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="53" t="s">
         <v>277</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -5109,7 +5148,7 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -5132,7 +5171,7 @@
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -5172,7 +5211,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="53" t="s">
         <v>288</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -5211,7 +5250,7 @@
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="20" t="s">
@@ -5227,7 +5266,7 @@
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="20" t="s">

--- a/New Website.xlsx
+++ b/New Website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook-air/Desktop/kerja/lasindo/Lasindo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A708FA-CAD1-B146-8682-182FFAA72FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02BDA3-E34F-254C-BFBB-482771BE7002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="312">
   <si>
     <t>Overview</t>
   </si>
@@ -978,22 +978,43 @@
     <t xml:space="preserve">    - ETC Reference Manual</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>update_at</t>
-  </si>
-  <si>
-    <t>Admin Email</t>
-  </si>
-  <si>
-    <t>admin_email</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>produk_id</t>
+  </si>
+  <si>
+    <t>auto int6</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>RCT</t>
+  </si>
+  <si>
+    <t>Temperature range from -100 to 700°C (-148 to 1292°F) with 7 models</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1343,6 +1364,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1361,25 +1394,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1958,364 +1979,357 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="47" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="47" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="40" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="40" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="33"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="33"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="33"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="33"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="33"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="47" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="35"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:C15"/>
-    <mergeCell ref="D3:F15"/>
-    <mergeCell ref="G3:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D17:F17"/>
@@ -2324,6 +2338,13 @@
     <mergeCell ref="D19:F31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A3:C15"/>
+    <mergeCell ref="D3:F15"/>
+    <mergeCell ref="G3:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2332,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K156"/>
+  <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2343,83 +2364,132 @@
     <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="59.5" style="9" customWidth="1"/>
-    <col min="4" max="7" width="9.1640625" style="8"/>
-    <col min="8" max="8" width="13" style="8" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="8"/>
+    <col min="4" max="6" width="9.1640625" style="8"/>
+    <col min="7" max="7" width="7" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37" style="8" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="9.1640625" style="8"/>
+    <col min="12" max="14" width="12.83203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="55" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>26</v>
       </c>
@@ -2429,12 +2499,9 @@
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
       <c r="B19" s="50" t="s">
         <v>14</v>
       </c>
@@ -2442,79 +2509,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
       <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
       <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
       <c r="B23" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
       <c r="B25" s="50" t="s">
         <v>19</v>
       </c>
@@ -2522,59 +2560,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
       <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
       <c r="B30" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <f>SUM(D19:D30)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
         <v>40</v>
       </c>
@@ -2584,16 +2609,9 @@
       <c r="C32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
-        <f>SUM(D32:D44)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
       <c r="B33" s="50" t="s">
         <v>14</v>
       </c>
@@ -2601,42 +2619,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
       <c r="B35" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+    </row>
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
       <c r="B36" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
       <c r="B37" s="50" t="s">
         <v>18</v>
       </c>
@@ -2644,18 +2653,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
       <c r="B39" s="50" t="s">
         <v>19</v>
       </c>
@@ -2663,55 +2669,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
       <c r="B43" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="51"/>
       <c r="B44" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="53" t="s">
         <v>48</v>
       </c>
@@ -2722,8 +2719,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="52"/>
       <c r="B47" s="50" t="s">
         <v>14</v>
       </c>
@@ -2731,22 +2728,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
@@ -2755,7 +2752,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
@@ -2764,7 +2761,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="50" t="s">
         <v>18</v>
       </c>
@@ -2773,21 +2770,21 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="50" t="s">
         <v>19</v>
       </c>
@@ -2796,28 +2793,28 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
@@ -2826,7 +2823,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="50" t="s">
         <v>20</v>
       </c>
@@ -2835,8 +2832,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13" t="s">
         <v>60</v>
       </c>
@@ -2853,7 +2850,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="50" t="s">
         <v>14</v>
       </c>
@@ -2862,14 +2859,14 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="14" t="s">
         <v>15</v>
       </c>
@@ -2878,7 +2875,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="14" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +2884,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="51"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="50" t="s">
         <v>18</v>
       </c>
@@ -2896,14 +2893,14 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="50" t="s">
         <v>19</v>
       </c>
@@ -2912,28 +2909,28 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="28" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="18" t="s">
         <v>37</v>
       </c>
@@ -2942,7 +2939,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="14" t="s">
         <v>20</v>
       </c>
@@ -2962,7 +2959,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="50" t="s">
         <v>14</v>
       </c>
@@ -2971,21 +2968,21 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="14" t="s">
         <v>15</v>
       </c>
@@ -2994,7 +2991,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="14" t="s">
         <v>16</v>
       </c>
@@ -3003,7 +3000,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="50" t="s">
         <v>18</v>
       </c>
@@ -3012,21 +3009,21 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="50" t="s">
         <v>19</v>
       </c>
@@ -3035,21 +3032,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="18" t="s">
         <v>37</v>
       </c>
@@ -3058,7 +3055,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="51"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="50" t="s">
         <v>20</v>
       </c>
@@ -3067,8 +3064,8 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="13" t="s">
         <v>60</v>
       </c>
@@ -3085,7 +3082,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="51"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="50" t="s">
         <v>14</v>
       </c>
@@ -3094,14 +3091,14 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="51"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="14" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3107,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="51"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="14" t="s">
         <v>16</v>
       </c>
@@ -3119,7 +3116,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="50" t="s">
         <v>18</v>
       </c>
@@ -3128,21 +3125,21 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
-      <c r="B99" s="51"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
-      <c r="B100" s="52"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="51"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="50" t="s">
         <v>19</v>
       </c>
@@ -3151,28 +3148,28 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="51"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="51"/>
-      <c r="B103" s="51"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="18" t="s">
         <v>37</v>
       </c>
@@ -3181,7 +3178,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="14" t="s">
         <v>20</v>
       </c>
@@ -3199,7 +3196,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="50" t="s">
         <v>14</v>
       </c>
@@ -3208,14 +3205,14 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="51"/>
-      <c r="B110" s="52"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="51"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="50" t="s">
         <v>15</v>
       </c>
@@ -3224,21 +3221,21 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="51"/>
-      <c r="B112" s="51"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="51"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="51"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="14" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +3244,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="51"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="14" t="s">
         <v>18</v>
       </c>
@@ -3256,7 +3253,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="50" t="s">
         <v>19</v>
       </c>
@@ -3265,21 +3262,21 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="51"/>
-      <c r="B117" s="51"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="51"/>
-      <c r="B118" s="52"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="51"/>
       <c r="C118" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="51"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="18" t="s">
         <v>37</v>
       </c>
@@ -3288,7 +3285,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
+      <c r="A120" s="51"/>
       <c r="B120" s="14" t="s">
         <v>20</v>
       </c>
@@ -3348,9 +3345,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>112</v>
-      </c>
+      <c r="A134"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -3435,6 +3430,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A46:A61"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B60:B61"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A93:A106"/>
     <mergeCell ref="B94:B95"/>
@@ -3451,20 +3460,6 @@
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="A32:A44"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B116:B118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A147" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -3481,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I93" sqref="H93:I93"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3575,7 +3570,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="50" t="s">
         <v>14</v>
       </c>
@@ -3584,14 +3579,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
@@ -3600,7 +3595,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
@@ -3609,7 +3604,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="50" t="s">
         <v>18</v>
       </c>
@@ -3618,14 +3613,14 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="50" t="s">
         <v>19</v>
       </c>
@@ -3634,21 +3629,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3652,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="14" t="s">
         <v>20</v>
       </c>
@@ -3677,7 +3672,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="50" t="s">
         <v>14</v>
       </c>
@@ -3686,14 +3681,14 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
@@ -3702,7 +3697,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="14" t="s">
         <v>16</v>
       </c>
@@ -3711,7 +3706,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="50" t="s">
         <v>18</v>
       </c>
@@ -3720,14 +3715,14 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="50" t="s">
         <v>19</v>
       </c>
@@ -3736,14 +3731,14 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
@@ -3752,7 +3747,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="14" t="s">
         <v>20</v>
       </c>
@@ -3772,7 +3767,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="50" t="s">
         <v>14</v>
       </c>
@@ -3781,14 +3776,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="14" t="s">
         <v>15</v>
       </c>
@@ -3797,7 +3792,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="14" t="s">
         <v>16</v>
       </c>
@@ -3806,7 +3801,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="32" t="s">
         <v>18</v>
       </c>
@@ -3815,7 +3810,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="50" t="s">
         <v>19</v>
       </c>
@@ -3824,14 +3819,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="18" t="s">
         <v>37</v>
       </c>
@@ -3840,7 +3835,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
@@ -3860,7 +3855,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="50" t="s">
         <v>14</v>
       </c>
@@ -3869,21 +3864,21 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="14" t="s">
         <v>15</v>
       </c>
@@ -3892,7 +3887,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="51"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="14" t="s">
         <v>16</v>
       </c>
@@ -3901,7 +3896,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="32" t="s">
         <v>18</v>
       </c>
@@ -3910,7 +3905,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="50" t="s">
         <v>19</v>
       </c>
@@ -3919,14 +3914,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="18" t="s">
         <v>37</v>
       </c>
@@ -3935,7 +3930,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="14" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +3950,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="50" t="s">
         <v>14</v>
       </c>
@@ -3964,21 +3959,21 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="14" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +3982,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="14" t="s">
         <v>16</v>
       </c>
@@ -3996,7 +3991,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="32" t="s">
         <v>18</v>
       </c>
@@ -4005,7 +4000,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="50" t="s">
         <v>19</v>
       </c>
@@ -4014,14 +4009,14 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="18" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4025,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="14" t="s">
         <v>20</v>
       </c>
@@ -4131,14 +4126,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B44:B45"/>
@@ -4148,6 +4135,14 @@
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A66:A76"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4157,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4236,7 +4231,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="50" t="s">
         <v>14</v>
       </c>
@@ -4245,14 +4240,14 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
@@ -4261,7 +4256,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
@@ -4270,7 +4265,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="32" t="s">
         <v>18</v>
       </c>
@@ -4279,7 +4274,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="50" t="s">
         <v>19</v>
       </c>
@@ -4288,14 +4283,14 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="13" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
@@ -4304,7 +4299,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
@@ -4324,7 +4319,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="50" t="s">
         <v>14</v>
       </c>
@@ -4333,21 +4328,21 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
@@ -4356,7 +4351,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
@@ -4365,7 +4360,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="32" t="s">
         <v>18</v>
       </c>
@@ -4374,7 +4369,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="50" t="s">
         <v>19</v>
       </c>
@@ -4383,14 +4378,14 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
@@ -4399,7 +4394,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
@@ -4419,7 +4414,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="50" t="s">
         <v>14</v>
       </c>
@@ -4428,14 +4423,14 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="13" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="14" t="s">
         <v>15</v>
       </c>
@@ -4444,7 +4439,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="14" t="s">
         <v>16</v>
       </c>
@@ -4453,7 +4448,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="32" t="s">
         <v>18</v>
       </c>
@@ -4462,7 +4457,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="50" t="s">
         <v>19</v>
       </c>
@@ -4471,14 +4466,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="18" t="s">
         <v>37</v>
       </c>
@@ -4487,7 +4482,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="14" t="s">
         <v>20</v>
       </c>
@@ -4507,7 +4502,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="50" t="s">
         <v>14</v>
       </c>
@@ -4516,14 +4511,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="14" t="s">
         <v>15</v>
       </c>
@@ -4532,7 +4527,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="14" t="s">
         <v>16</v>
       </c>
@@ -4541,7 +4536,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="32" t="s">
         <v>18</v>
       </c>
@@ -4550,7 +4545,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="50" t="s">
         <v>19</v>
       </c>
@@ -4559,14 +4554,14 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="51"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
@@ -4575,7 +4570,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="14" t="s">
         <v>20</v>
       </c>
@@ -4595,7 +4590,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="32" t="s">
         <v>14</v>
       </c>
@@ -4604,7 +4599,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="14" t="s">
         <v>15</v>
       </c>
@@ -4613,7 +4608,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="14" t="s">
         <v>16</v>
       </c>
@@ -4622,7 +4617,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="32" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4626,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="50" t="s">
         <v>19</v>
       </c>
@@ -4640,14 +4635,14 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="18" t="s">
         <v>37</v>
       </c>
@@ -4656,7 +4651,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="14" t="s">
         <v>20</v>
       </c>
@@ -4782,6 +4777,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A89" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A92" r:id="rId2" xr:uid="{481B04CE-6EB5-A042-84F0-8DC59DD221EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4791,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -4865,7 +4861,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="50" t="s">
         <v>14</v>
       </c>
@@ -4874,14 +4870,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
@@ -4890,7 +4886,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
@@ -4899,7 +4895,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="32" t="s">
         <v>18</v>
       </c>
@@ -4908,7 +4904,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="50" t="s">
         <v>19</v>
       </c>
@@ -4917,14 +4913,14 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="18" t="s">
         <v>37</v>
       </c>
@@ -4933,7 +4929,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
@@ -5041,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -5120,7 +5116,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="32" t="s">
         <v>14</v>
       </c>
@@ -5129,7 +5125,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
@@ -5138,7 +5134,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
@@ -5147,7 +5143,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="50" t="s">
         <v>18</v>
       </c>
@@ -5156,21 +5152,21 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="50" t="s">
         <v>19</v>
       </c>
@@ -5179,21 +5175,21 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="16" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="18" t="s">
         <v>37</v>
       </c>
@@ -5202,7 +5198,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
@@ -5222,7 +5218,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="32" t="s">
         <v>14</v>
       </c>
@@ -5231,7 +5227,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
@@ -5240,7 +5236,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
@@ -5249,7 +5245,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="50" t="s">
         <v>18</v>
       </c>
@@ -5258,14 +5254,14 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="21" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="50" t="s">
         <v>19</v>
       </c>
@@ -5274,14 +5270,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="17" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="18" t="s">
         <v>37</v>
       </c>
@@ -5290,7 +5286,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="14" t="s">
         <v>20</v>
       </c>
